--- a/data/trans_dic/P19C09-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P19C09-Edad-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P19C09-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P19C09-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,17%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,77%</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>0,25; 2,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>1,02; 3,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>1,78; 6,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>0,49; 3,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>1,66; 5,36</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>1,07; 4,32</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>0,51; 2,08</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>1,62; 3,87</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>1,7; 4,28</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,61%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,14%</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>0,97; 3,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>0,96; 3,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>1,76; 4,95</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>1,23; 3,85</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>2,12; 5,49</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>1,91; 5,22</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>1,35; 3,3</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>1,71; 3,84</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>2,21; 4,54</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,43%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,96%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,78%</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>1,33; 4,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>0,51; 2,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>1,94; 5,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>0,87; 3,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>1,43; 4,51</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>1,13; 3,68</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>1,4; 3,1</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>1,24; 3,18</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>1,9; 3,85</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,18%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,51%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,27%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>0,61; 3,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>0,4; 2,38</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>1,02; 3,71</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>1,94; 5,64</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>0,82; 3,72</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>1,34; 4,27</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>1,56; 3,8</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>0,83; 2,4</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>1,46; 3,31</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,51%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,74%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,78%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,79%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,74%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,82%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,7</t>
+          <t>1,72; 5,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,59</t>
+          <t>0,58; 3,48</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>0,86; 3,81</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>3,63; 8,79</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,55</t>
+          <t>1,0; 4,46</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,55</t>
+          <t>2,18; 6,27</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>3,23; 6,62</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>1,2; 3,48</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>1,71; 4,26</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1182,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,16%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,56%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,38%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,71%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,81%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,55</t>
+          <t>3,66; 9,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>1,17; 4,89</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>1,89; 5,62</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>3,49; 7,66</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>2,1; 5,35</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>1,21; 4,26</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>4,28; 7,62</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>1,99; 4,34</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>1,93; 4,22</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1292,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,85%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,14%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,66%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,76%</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1345,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>2,03; 3,34</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>1,3; 2,36</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>2,26; 3,53</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>2,54; 3,84</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>2,25; 3,48</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>2,13; 3,42</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>2,44; 3,38</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>1,88; 2,72</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>2,36; 3,27</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P19C09-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P19C09-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -732,7 +732,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -842,7 +842,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1062,7 +1062,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1172,7 +1172,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1182,37 +1182,37 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>6,16%</t>
+          <t>4,31%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>3,91%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>3,46%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>5,38%</t>
+          <t>5,8%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>3,46%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>5,71%</t>
+          <t>5,11%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1222,7 +1222,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>2,81%</t>
+          <t>2,11%</t>
         </is>
       </c>
     </row>
@@ -1235,54 +1235,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,66; 9,0</t>
+          <t>2,16; 7,64</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,17; 4,89</t>
+          <t>1,91; 7,73</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,89; 5,62</t>
+          <t>0,81; 4,85</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,49; 7,66</t>
+          <t>3,39; 9,29</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,1; 5,35</t>
+          <t>0,99; 4,38</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,21; 4,26</t>
+          <t>0,76; 4,53</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,28; 7,62</t>
+          <t>3,53; 7,36</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,99; 4,34</t>
+          <t>1,79; 5,02</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,93; 4,22</t>
+          <t>1,1; 3,51</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1292,47 +1292,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>9,24%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>0,58%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>5,65%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,14%</t>
+          <t>4,87%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,81%</t>
+          <t>4,58%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,66%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,9%</t>
+          <t>6,53%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>2,76%</t>
+          <t>3,75%</t>
         </is>
       </c>
     </row>
@@ -1345,59 +1345,169 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>5,02; 15,87</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 3,56</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>2,83; 10,47</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>2,21; 8,66</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>2,78; 8,0</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0,87; 6,54</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>4,12; 9,73</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>1,74; 5,12</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>2,06; 6,55</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2,62%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1,72%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2,85%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>3,14%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>2,81%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>2,66%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>2,9%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>2,28%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>2,76%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>2,03; 3,34</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>1,3; 2,36</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>2,26; 3,53</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
         <is>
           <t>2,54; 3,84</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>2,25; 3,48</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>2,13; 3,42</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>2,44; 3,38</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
         <is>
           <t>1,88; 2,72</t>
         </is>
       </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>2,36; 3,27</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1408,6 +1518,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P19C09-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P19C09-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,3</t>
+          <t>0,26; 2,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,02; 3,94</t>
+          <t>1,01; 3,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,78; 6,1</t>
+          <t>1,82; 5,8</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,49; 3,0</t>
+          <t>0,49; 2,77</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,66; 5,36</t>
+          <t>1,54; 5,27</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,07; 4,32</t>
+          <t>1,06; 4,02</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,51; 2,08</t>
+          <t>0,52; 2,02</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,62; 3,87</t>
+          <t>1,74; 4,03</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,7; 4,28</t>
+          <t>1,71; 4,16</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,97; 3,7</t>
+          <t>1,09; 3,77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,96; 3,36</t>
+          <t>0,95; 3,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,76; 4,95</t>
+          <t>1,74; 5,03</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,23; 3,85</t>
+          <t>1,29; 4,02</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,12; 5,49</t>
+          <t>2,2; 5,36</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,91; 5,22</t>
+          <t>1,87; 5,25</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,35; 3,3</t>
+          <t>1,39; 3,27</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,71; 3,84</t>
+          <t>1,75; 3,81</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,21; 4,54</t>
+          <t>2,11; 4,38</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,33; 4,37</t>
+          <t>1,33; 4,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,51; 2,62</t>
+          <t>0,52; 2,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,94; 5,44</t>
+          <t>2,11; 5,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,87; 3,3</t>
+          <t>1,0; 3,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,43; 4,51</t>
+          <t>1,34; 4,39</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,13; 3,68</t>
+          <t>1,2; 3,8</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,4; 3,1</t>
+          <t>1,36; 3,07</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,24; 3,18</t>
+          <t>1,19; 3,05</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,9; 3,85</t>
+          <t>1,9; 3,82</t>
         </is>
       </c>
     </row>
@@ -1015,12 +1016,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,61; 3,89</t>
+          <t>0,48; 3,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,4; 2,38</t>
+          <t>0,56; 2,38</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1030,32 +1031,32 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,94; 5,64</t>
+          <t>1,95; 5,45</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,82; 3,72</t>
+          <t>0,81; 3,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,34; 4,27</t>
+          <t>1,34; 4,25</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,56; 3,8</t>
+          <t>1,51; 3,86</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,83; 2,4</t>
+          <t>0,79; 2,43</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,46; 3,31</t>
+          <t>1,44; 3,57</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,72; 5,98</t>
+          <t>1,76; 6,32</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,58; 3,48</t>
+          <t>0,57; 3,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,86; 3,81</t>
+          <t>0,62; 3,69</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,63; 8,79</t>
+          <t>3,37; 8,67</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,0; 4,46</t>
+          <t>1,05; 4,37</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,18; 6,27</t>
+          <t>2,0; 6,22</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,23; 6,62</t>
+          <t>3,21; 6,71</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,2; 3,48</t>
+          <t>1,21; 3,37</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,71; 4,26</t>
+          <t>1,68; 4,27</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,16; 7,64</t>
+          <t>2,18; 7,7</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,91; 7,73</t>
+          <t>1,62; 7,18</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,81; 4,85</t>
+          <t>0,82; 4,6</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,39; 9,29</t>
+          <t>3,45; 9,14</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,99; 4,38</t>
+          <t>0,99; 4,69</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,76; 4,53</t>
+          <t>0,73; 4,23</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,53; 7,36</t>
+          <t>3,49; 7,61</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,79; 5,02</t>
+          <t>1,69; 5,09</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,1; 3,51</t>
+          <t>1,13; 3,64</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,02; 15,87</t>
+          <t>5,05; 15,49</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,56</t>
+          <t>0,0; 2,65</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,83; 10,47</t>
+          <t>2,84; 10,67</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,21; 8,66</t>
+          <t>2,24; 8,73</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,78; 8,0</t>
+          <t>2,48; 8,13</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,87; 6,54</t>
+          <t>0,88; 6,5</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,12; 9,73</t>
+          <t>4,14; 9,98</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,74; 5,12</t>
+          <t>1,75; 5,0</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,06; 6,55</t>
+          <t>2,09; 6,45</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,03; 3,34</t>
+          <t>2,03; 3,28</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,3; 2,36</t>
+          <t>1,26; 2,33</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2,26; 3,53</t>
+          <t>2,3; 3,64</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,54; 3,84</t>
+          <t>2,54; 3,9</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>2,25; 3,48</t>
+          <t>2,24; 3,48</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>2,13; 3,42</t>
+          <t>2,07; 3,34</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>2,44; 3,38</t>
+          <t>2,43; 3,43</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>1,88; 2,72</t>
+          <t>1,93; 2,76</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>2,36; 3,27</t>
+          <t>2,33; 3,2</t>
         </is>
       </c>
     </row>
@@ -1523,4 +1524,1455 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyo motivo por su última visita al dentista fue por otros motivos</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>3547</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>7835</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>11916</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>4763</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>11038</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>7620</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>8310</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>18873</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>19535</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>928; 8909</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>3687; 14579</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>6436; 20452</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1860; 10411</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>5581; 19057</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>3741; 14131</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>3854; 14844</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>12630; 29298</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>12083; 29286</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>11569</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>10571</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>14818</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>12907</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>18980</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>16255</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>24477</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>29551</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>31073</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>6255; 21697</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>5618; 20081</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>8575; 24826</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>7044; 22030</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>11896; 29004</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>9307; 26065</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>15561; 36774</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>19795; 43109</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>20902; 43334</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>12406</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>6933</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>19156</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>10798</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>16848</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>12316</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>23204</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>23781</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>31472</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>6685; 21358</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2946; 16726</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>11745; 30641</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>6017; 20142</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>8610; 28251</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>6890; 21754</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>15041; 33873</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>14463; 37068</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>21523; 43163</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>6423</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>6138</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>10531</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>14734</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>9808</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>13505</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>21157</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>15947</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>24036</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1943; 15649</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2892; 12403</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>5235; 19027</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>8570; 23923</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>4436; 18855</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>7312; 23170</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>12735; 32563</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>8461; 25899</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>15239; 37705</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>9527</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>6059</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>6581</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>18360</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>8914</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>15014</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>27887</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>14973</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>21595</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>4786; 17162</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2002; 11411</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2286; 13681</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>10683; 27522</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>3998; 16706</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>7907; 24610</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>18917; 39515</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>8871; 24663</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>12874; 32753</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>9109</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>10212</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>4747</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>14321</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>6919</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>5935</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>23430</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>17131</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>10683</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>4604; 16275</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>4229; 18766</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>1892; 10588</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>8527; 22559</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>2944; 13921</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>2018; 11721</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>16010; 34868</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>9410; 28382</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>5719; 18459</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>11709</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>1035</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>8312</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>10150</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>13654</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>5755</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>21859</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>14689</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>14067</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>6407; 19632</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>0; 4734</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>4170; 15696</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>4661; 18172</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>7384; 24241</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>1996; 14817</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>13861; 33444</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>8343; 23851</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>7826; 24167</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>64290</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>48784</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>76062</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>86034</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>86161</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>76400</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>150323</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>134945</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>152462</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>49747; 80395</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>35840; 65963</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>61151; 96900</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>69534; 106829</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>68765; 106697</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>59388; 95811</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>126092; 178096</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>114248; 163248</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>128980; 177268</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>